--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="2910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SwagLabsData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M7"/>
+  <oleSize ref="A1:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1847,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1896,4 +1897,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>